--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ren1-Atp6ap2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ren1-Atp6ap2.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.458912</v>
+        <v>0.3569133333333334</v>
       </c>
       <c r="H2">
-        <v>1.376736</v>
+        <v>1.07074</v>
       </c>
       <c r="I2">
-        <v>0.8039353084620343</v>
+        <v>0.928094236140756</v>
       </c>
       <c r="J2">
-        <v>0.8601503458754848</v>
+        <v>0.9508856218001945</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.002912</v>
+        <v>6.904282333333334</v>
       </c>
       <c r="N2">
-        <v>24.008736</v>
+        <v>20.712847</v>
       </c>
       <c r="O2">
-        <v>0.05311494979707632</v>
+        <v>0.04090096694673821</v>
       </c>
       <c r="P2">
-        <v>0.05444888425913186</v>
+        <v>0.04187630379952963</v>
       </c>
       <c r="Q2">
-        <v>3.672632351744</v>
+        <v>2.464230421864445</v>
       </c>
       <c r="R2">
-        <v>33.05369116569599</v>
+        <v>22.17807379678</v>
       </c>
       <c r="S2">
-        <v>0.04270098354905802</v>
+        <v>0.0379599516758513</v>
       </c>
       <c r="T2">
-        <v>0.04683422662802651</v>
+        <v>0.03981957517710958</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.458912</v>
+        <v>0.3569133333333334</v>
       </c>
       <c r="H3">
-        <v>1.376736</v>
+        <v>1.07074</v>
       </c>
       <c r="I3">
-        <v>0.8039353084620343</v>
+        <v>0.928094236140756</v>
       </c>
       <c r="J3">
-        <v>0.8601503458754848</v>
+        <v>0.9508856218001945</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>41.293655</v>
       </c>
       <c r="O3">
-        <v>0.09135468074049337</v>
+        <v>0.08154120089165004</v>
       </c>
       <c r="P3">
-        <v>0.09364897184639465</v>
+        <v>0.08348565707905657</v>
       </c>
       <c r="Q3">
-        <v>6.316717934453334</v>
+        <v>4.91275201718889</v>
       </c>
       <c r="R3">
-        <v>56.85046141008</v>
+        <v>44.2147681547</v>
       </c>
       <c r="S3">
-        <v>0.0734432534405592</v>
+        <v>0.07567791855553588</v>
       </c>
       <c r="T3">
-        <v>0.08055219552455989</v>
+        <v>0.07938531094301653</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.458912</v>
+        <v>0.3569133333333334</v>
       </c>
       <c r="H4">
-        <v>1.376736</v>
+        <v>1.07074</v>
       </c>
       <c r="I4">
-        <v>0.8039353084620343</v>
+        <v>0.928094236140756</v>
       </c>
       <c r="J4">
-        <v>0.8601503458754848</v>
+        <v>0.9508856218001945</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.53117666666666</v>
+        <v>68.52477533333332</v>
       </c>
       <c r="N4">
-        <v>163.59353</v>
+        <v>205.574326</v>
       </c>
       <c r="O4">
-        <v>0.3619208496889006</v>
+        <v>0.4059407532351291</v>
       </c>
       <c r="P4">
-        <v>0.3710101681534927</v>
+        <v>0.4156209394565383</v>
       </c>
       <c r="Q4">
-        <v>25.02501134645333</v>
+        <v>24.45740598013778</v>
       </c>
       <c r="R4">
-        <v>225.22510211808</v>
+        <v>220.11665382124</v>
       </c>
       <c r="S4">
-        <v>0.2909609499334879</v>
+        <v>0.3767512732921602</v>
       </c>
       <c r="T4">
-        <v>0.3191245244605486</v>
+        <v>0.3952079754483114</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.458912</v>
+        <v>0.3569133333333334</v>
       </c>
       <c r="H5">
-        <v>1.376736</v>
+        <v>1.07074</v>
       </c>
       <c r="I5">
-        <v>0.8039353084620343</v>
+        <v>0.928094236140756</v>
       </c>
       <c r="J5">
-        <v>0.8601503458754848</v>
+        <v>0.9508856218001945</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.0738345</v>
+        <v>11.7948525</v>
       </c>
       <c r="N5">
-        <v>22.147669</v>
+        <v>23.589705</v>
       </c>
       <c r="O5">
-        <v>0.07349651770863302</v>
+        <v>0.0698727034836137</v>
       </c>
       <c r="P5">
-        <v>0.05022821134734301</v>
+        <v>0.04769260609713784</v>
       </c>
       <c r="Q5">
-        <v>5.081915538064</v>
+        <v>4.20974012195</v>
       </c>
       <c r="R5">
-        <v>30.491493228384</v>
+        <v>25.2584407317</v>
       </c>
       <c r="S5">
-        <v>0.05908644563497526</v>
+        <v>0.06484845336671399</v>
       </c>
       <c r="T5">
-        <v>0.04320381336312404</v>
+        <v>0.04535021340394866</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.458912</v>
+        <v>0.3569133333333334</v>
       </c>
       <c r="H6">
-        <v>1.376736</v>
+        <v>1.07074</v>
       </c>
       <c r="I6">
-        <v>0.8039353084620343</v>
+        <v>0.928094236140756</v>
       </c>
       <c r="J6">
-        <v>0.8601503458754848</v>
+        <v>0.9508856218001945</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>63.29907866666667</v>
+        <v>67.81640633333333</v>
       </c>
       <c r="N6">
-        <v>189.897236</v>
+        <v>203.449219</v>
       </c>
       <c r="O6">
-        <v>0.4201130020648965</v>
+        <v>0.401744375442869</v>
       </c>
       <c r="P6">
-        <v>0.4306637643936377</v>
+        <v>0.4113244935677377</v>
       </c>
       <c r="Q6">
-        <v>29.04870678907734</v>
+        <v>24.20457963911778</v>
       </c>
       <c r="R6">
-        <v>261.438361101696</v>
+        <v>217.84121675206</v>
       </c>
       <c r="S6">
-        <v>0.3377436759039539</v>
+        <v>0.3728566392504946</v>
       </c>
       <c r="T6">
-        <v>0.3704355858992258</v>
+        <v>0.3911225468278084</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.11192</v>
+        <v>0.0276525</v>
       </c>
       <c r="H7">
-        <v>0.22384</v>
+        <v>0.055305</v>
       </c>
       <c r="I7">
-        <v>0.1960646915379657</v>
+        <v>0.07190576385924385</v>
       </c>
       <c r="J7">
-        <v>0.1398496541245152</v>
+        <v>0.04911437819980551</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.002912</v>
+        <v>6.904282333333334</v>
       </c>
       <c r="N7">
-        <v>24.008736</v>
+        <v>20.712847</v>
       </c>
       <c r="O7">
-        <v>0.05311494979707632</v>
+        <v>0.04090096694673821</v>
       </c>
       <c r="P7">
-        <v>0.05444888425913186</v>
+        <v>0.04187630379952963</v>
       </c>
       <c r="Q7">
-        <v>0.8956859110400001</v>
+        <v>0.1909206672225</v>
       </c>
       <c r="R7">
-        <v>5.37411546624</v>
+        <v>1.145524003335</v>
       </c>
       <c r="S7">
-        <v>0.0104139662480183</v>
+        <v>0.002941015270886895</v>
       </c>
       <c r="T7">
-        <v>0.00761465763110535</v>
+        <v>0.002056728622420051</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.11192</v>
+        <v>0.0276525</v>
       </c>
       <c r="H8">
-        <v>0.22384</v>
+        <v>0.055305</v>
       </c>
       <c r="I8">
-        <v>0.1960646915379657</v>
+        <v>0.07190576385924385</v>
       </c>
       <c r="J8">
-        <v>0.1398496541245152</v>
+        <v>0.04911437819980551</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>41.293655</v>
       </c>
       <c r="O8">
-        <v>0.09135468074049337</v>
+        <v>0.08154120089165004</v>
       </c>
       <c r="P8">
-        <v>0.09364897184639465</v>
+        <v>0.08348565707905657</v>
       </c>
       <c r="Q8">
-        <v>1.540528622533333</v>
+        <v>0.3806242649625</v>
       </c>
       <c r="R8">
-        <v>9.243171735200001</v>
+        <v>2.283745589775</v>
       </c>
       <c r="S8">
-        <v>0.01791142729993416</v>
+        <v>0.005863282336114152</v>
       </c>
       <c r="T8">
-        <v>0.01309677632183475</v>
+        <v>0.004100346136040055</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.11192</v>
+        <v>0.0276525</v>
       </c>
       <c r="H9">
-        <v>0.22384</v>
+        <v>0.055305</v>
       </c>
       <c r="I9">
-        <v>0.1960646915379657</v>
+        <v>0.07190576385924385</v>
       </c>
       <c r="J9">
-        <v>0.1398496541245152</v>
+        <v>0.04911437819980551</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.53117666666666</v>
+        <v>68.52477533333332</v>
       </c>
       <c r="N9">
-        <v>163.59353</v>
+        <v>205.574326</v>
       </c>
       <c r="O9">
-        <v>0.3619208496889006</v>
+        <v>0.4059407532351291</v>
       </c>
       <c r="P9">
-        <v>0.3710101681534927</v>
+        <v>0.4156209394565383</v>
       </c>
       <c r="Q9">
-        <v>6.103129292533333</v>
+        <v>1.894881349905</v>
       </c>
       <c r="R9">
-        <v>36.6187757552</v>
+        <v>11.36928809943</v>
       </c>
       <c r="S9">
-        <v>0.07095989975541274</v>
+        <v>0.02918947994296877</v>
       </c>
       <c r="T9">
-        <v>0.05188564369294418</v>
+        <v>0.02041296400822689</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.11192</v>
+        <v>0.0276525</v>
       </c>
       <c r="H10">
-        <v>0.22384</v>
+        <v>0.055305</v>
       </c>
       <c r="I10">
-        <v>0.1960646915379657</v>
+        <v>0.07190576385924385</v>
       </c>
       <c r="J10">
-        <v>0.1398496541245152</v>
+        <v>0.04911437819980551</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.0738345</v>
+        <v>11.7948525</v>
       </c>
       <c r="N10">
-        <v>22.147669</v>
+        <v>23.589705</v>
       </c>
       <c r="O10">
-        <v>0.07349651770863302</v>
+        <v>0.0698727034836137</v>
       </c>
       <c r="P10">
-        <v>0.05022821134734301</v>
+        <v>0.04769260609713784</v>
       </c>
       <c r="Q10">
-        <v>1.23938355724</v>
+        <v>0.32615715875625</v>
       </c>
       <c r="R10">
-        <v>4.95753422896</v>
+        <v>1.304628635025</v>
       </c>
       <c r="S10">
-        <v>0.01441007207365777</v>
+        <v>0.005024250116899692</v>
       </c>
       <c r="T10">
-        <v>0.007024397984218969</v>
+        <v>0.002342392693189178</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.11192</v>
+        <v>0.0276525</v>
       </c>
       <c r="H11">
-        <v>0.22384</v>
+        <v>0.055305</v>
       </c>
       <c r="I11">
-        <v>0.1960646915379657</v>
+        <v>0.07190576385924385</v>
       </c>
       <c r="J11">
-        <v>0.1398496541245152</v>
+        <v>0.04911437819980551</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>63.29907866666667</v>
+        <v>67.81640633333333</v>
       </c>
       <c r="N11">
-        <v>189.897236</v>
+        <v>203.449219</v>
       </c>
       <c r="O11">
-        <v>0.4201130020648965</v>
+        <v>0.401744375442869</v>
       </c>
       <c r="P11">
-        <v>0.4306637643936377</v>
+        <v>0.4113244935677377</v>
       </c>
       <c r="Q11">
-        <v>7.084432884373334</v>
+        <v>1.8752931761325</v>
       </c>
       <c r="R11">
-        <v>42.50659730624</v>
+        <v>11.251759056795</v>
       </c>
       <c r="S11">
-        <v>0.08236932616094267</v>
+        <v>0.02888773619237434</v>
       </c>
       <c r="T11">
-        <v>0.06022817849441194</v>
+        <v>0.02020194673992934</v>
       </c>
     </row>
   </sheetData>
